--- a/database_master_thesis.xlsx
+++ b/database_master_thesis.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Desktop\MA B&amp;F Master Thesis 2023\Master_Thesis_BF2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55E45A8-9555-46F9-96E0-A17D1CCAB26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E42CEB-C869-48D9-BA8D-E38BB7AECDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{CCBE0FFA-7A8F-4B62-9696-6C7EA466F87F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{CCBE0FFA-7A8F-4B62-9696-6C7EA466F87F}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
+    <sheet name="ETS_price_rates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
   <si>
     <t>CPI (headline)</t>
   </si>
@@ -304,6 +305,30 @@
   </si>
   <si>
     <t>NEER (nominal effective exchange rate)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>California CaT</t>
+  </si>
+  <si>
+    <t>ETS_Price_Rate (tCO2/$)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the initiative </t>
+  </si>
+  <si>
+    <t>EU ETS (EU-27 +Norway, Iceland, Liechtenstein)</t>
+  </si>
+  <si>
+    <t>RGGI (The Regional Greenhouse Gas Initiative)</t>
+  </si>
+  <si>
+    <t>Switzerland ETS</t>
+  </si>
+  <si>
+    <t>UK ETS</t>
   </si>
 </sst>
 </file>
@@ -415,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
@@ -445,19 +470,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <border outline="0">
         <left style="medium">
@@ -497,6 +521,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -513,10 +544,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17752DB1-74CF-468F-9F2A-DF8784A5FEC4}" name="Table1" displayName="Table1" ref="A1:O8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17752DB1-74CF-468F-9F2A-DF8784A5FEC4}" name="Table1" displayName="Table1" ref="A1:O8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{A0022C27-C5AA-447D-A36C-64A10C7299CD}" name="." dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{FC7905F0-CCBF-4027-B7E8-1C57A1C1E72B}" name="CPI (headline)" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A0022C27-C5AA-447D-A36C-64A10C7299CD}" name="." dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FC7905F0-CCBF-4027-B7E8-1C57A1C1E72B}" name="CPI (headline)" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{CDCBB7DD-8DFB-4145-BC40-4496F37B8C45}" name="CPI (core inflation)"/>
     <tableColumn id="4" xr3:uid="{62ECABF4-A87C-402B-8AAC-EDB66A7952AE}" name="Energy Inflation"/>
     <tableColumn id="5" xr3:uid="{DDE001CC-BD68-4A4A-B002-A701D08AD0C3}" name="Inflation forecast"/>
@@ -834,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9C747A-9134-4547-8B88-3F6AF2E9C394}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1242,4 +1273,1024 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF678F1-CFD0-4BE5-B8AD-43FB85B2B053}">
+  <dimension ref="A1:C91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C2" s="12">
+        <v>19.049730010000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C3" s="12">
+        <v>32.244399000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1.2564040000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C5" s="12">
+        <v>34.483319999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C6" s="12">
+        <v>15.550803999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C7" s="12">
+        <v>17.265975990000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C8" s="12">
+        <v>23.756879999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C9" s="12">
+        <v>9.2966619959999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C10" s="12">
+        <v>6.0604800030000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C11" s="12">
+        <v>6.7570999970000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C12" s="12">
+        <v>7.6898249999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4.8786715200000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="12">
+        <v>6.2367387970000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="12">
+        <v>16.365354119999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C16" s="12">
+        <v>24.505701999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="12">
+        <v>18.536525170000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C18" s="12">
+        <v>49.77954802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C19" s="12">
+        <v>86.526107999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C27" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C28" s="12">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C29" s="12">
+        <v>11.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C30" s="12">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C31" s="12">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C32" s="12">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C33" s="12">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C34" s="12">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C35" s="12">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C36" s="12">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="12">
+        <v>30.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C41" s="12">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C42" s="12">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C43" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C44" s="12">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C45" s="12">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C46" s="12">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C47" s="12">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C48" s="12">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C49" s="12">
+        <v>5.2370452040000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C50" s="12">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C51" s="12">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C52" s="12">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="12">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C54" s="12">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C55" s="12">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C62" s="12">
+        <v>19.50796575</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C63" s="12">
+        <v>19.94017946</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C64" s="12">
+        <v>18.973331930000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C65" s="12">
+        <v>45.578077229999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C66" s="12">
+        <v>12.391573729999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C67" s="12">
+        <v>9.2345577670000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C68" s="12">
+        <v>6.728079192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C69" s="12">
+        <v>7.8831152080000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="12">
+        <v>7.1844902859999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C71" s="12">
+        <v>18.800497740000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C72" s="12">
+        <v>41.488293429999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C73" s="12">
+        <v>64.224651010000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C74" s="12">
+        <v>19.049730010000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C75" s="12">
+        <v>32.244399000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C76" s="12">
+        <v>1.2564040000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C77" s="12">
+        <v>34.483319999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C78" s="12">
+        <v>15.550803999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C79" s="12">
+        <v>17.265975990000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C80" s="12">
+        <v>23.756879999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C81" s="12">
+        <v>9.2966619959999992</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C82" s="12">
+        <v>6.0604800030000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C83" s="12">
+        <v>6.7570999970000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C84" s="12">
+        <v>7.6898249999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C85" s="12">
+        <v>4.8786715200000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C86" s="12">
+        <v>6.2367387970000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C87" s="12">
+        <v>16.365354119999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C88" s="12">
+        <v>24.505701999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C89" s="12">
+        <v>18.536525170000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C90" s="12">
+        <v>49.77954802</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C91" s="12">
+        <v>98.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>